--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -621,7 +621,7 @@
       <bottom/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -645,6 +645,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
@@ -655,7 +697,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="62"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -676,7 +718,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="20"/>
+    <cellStyle name="Hyperlink" xfId="62"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2016,7 +2058,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9DE811-B72B-451C-B73B-4D5CBE41E77C}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G7" sqref="G7"/>
@@ -3273,6 +3315,48 @@
       </c>
       <c r="D89" s="9">
         <v>45776.684884259259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="9">
+        <v>45779</v>
+      </c>
+      <c r="D90" s="9">
+        <v>45779.819120370368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="9">
+        <v>45779</v>
+      </c>
+      <c r="D91" s="9">
+        <v>45779.821006944447</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="9">
+        <v>45779</v>
+      </c>
+      <c r="D92" s="9">
+        <v>45779.844282407408</v>
       </c>
     </row>
   </sheetData>

--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
-  <extLst>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -621,7 +621,7 @@
       <bottom/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -645,6 +645,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -697,7 +711,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="62"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="76"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -718,7 +732,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="62"/>
+    <cellStyle name="Hyperlink" xfId="76"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1103,21 +1117,21 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28125" style="0" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.00390625" style="0" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="0" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28125" style="0" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28125" style="0" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.421875" style="0" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.00390625" style="0" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="0" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28125" style="0" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.57421875" style="0" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="0" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28125" style="0" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.421875" style="0" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28125" widthPt="75" style="0" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.00390625" widthPt="42" style="0" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" widthPt="119.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28125" widthPt="132.75" style="0" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28125" widthPt="59.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.421875" widthPt="23.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.00390625" widthPt="57.75" style="0" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" widthPt="69" style="0" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28125" widthPt="106.5" style="0" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.57421875" widthPt="71.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" widthPt="119.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28125" widthPt="43.5" style="0" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.421875" widthPt="33.75" style="0" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15">
@@ -2058,17 +2072,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9DE811-B72B-451C-B73B-4D5CBE41E77C}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="0" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.421875" style="0" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" style="0" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" widthPt="35.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.421875" widthPt="81" style="0" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" widthPt="51" style="0" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -3314,7 +3328,7 @@
         <v>45776</v>
       </c>
       <c r="D89" s="9">
-        <v>45776.684884259259</v>
+        <v>45776.6848842593</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
@@ -3328,7 +3342,7 @@
         <v>45779</v>
       </c>
       <c r="D90" s="9">
-        <v>45779.819120370368</v>
+        <v>45779.8191203704</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
@@ -3342,7 +3356,7 @@
         <v>45779</v>
       </c>
       <c r="D91" s="9">
-        <v>45779.821006944447</v>
+        <v>45779.8210069444</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
@@ -3356,7 +3370,21 @@
         <v>45779</v>
       </c>
       <c r="D92" s="9">
-        <v>45779.844282407408</v>
+        <v>45779.8442824074</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D93" s="9">
+        <v>45782.677662037</v>
       </c>
     </row>
   </sheetData>
@@ -3372,7 +3400,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" ht="15">
       <c r="B1" s="10" t="s">
@@ -3422,6 +3450,6 @@
   </hyperlinks>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="167">
   <si>
     <t>Name</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> logged in</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
       <bottom/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="455">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -645,6 +648,384 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -711,7 +1092,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="76"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="454"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -732,7 +1113,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="76"/>
+    <cellStyle name="Hyperlink" xfId="454"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1623,7 +2004,7 @@
         <v>100</v>
       </c>
       <c r="M12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15">
@@ -2072,7 +2453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9DE811-B72B-451C-B73B-4D5CBE41E77C}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G7" sqref="G7"/>
@@ -3385,6 +3766,341 @@
       </c>
       <c r="D93" s="9">
         <v>45782.677662037</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D94" s="9">
+        <v>45782.678287037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D95" s="9">
+        <v>45782.6805671296</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="15">
+      <c r="B96" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D96" s="9">
+        <v>45782.6814814815</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="15">
+      <c r="B97" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D97" s="9">
+        <v>45782.6815740741</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="15">
+      <c r="B98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D98" s="9">
+        <v>45782.6871875</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D99" s="9">
+        <v>45782.6889814815</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D100" s="9">
+        <v>45782.6890162037</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D101" s="9">
+        <v>45782.6890277778</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D102" s="9">
+        <v>45782.6890277778</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D103" s="9">
+        <v>45782.6890393518</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D104" s="9">
+        <v>45782.6890393518</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D105" s="9">
+        <v>45782.6890393518</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D106" s="9">
+        <v>45782.6890393518</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D107" s="9">
+        <v>45782.6890509259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D108" s="9">
+        <v>45782.6890509259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D109" s="9">
+        <v>45782.6890509259</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="15">
+      <c r="B110" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D110" s="9">
+        <v>45782.689537037</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="15">
+      <c r="B111" t="s">
+        <v>166</v>
+      </c>
+      <c r="C111" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D111" s="9">
+        <v>45782.6899189815</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D112" s="9">
+        <v>45782.6925810185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D113" s="9">
+        <v>45782.6937731481</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D114" s="9">
+        <v>45782.6947106481</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D115" s="9">
+        <v>45782.6952893518</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D116" s="9">
+        <v>45782.6959027778</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D117" s="9">
+        <v>45782.69625</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" s="9">
+        <v>45782</v>
+      </c>
+      <c r="D118" s="9">
+        <v>45782.6970138889</v>
       </c>
     </row>
   </sheetData>

--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="167">
   <si>
     <t>Name</t>
   </si>
@@ -624,7 +624,7 @@
       <bottom/>
     </border>
   </borders>
-  <cellStyleXfs count="455">
+  <cellStyleXfs count="469">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -648,6 +648,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1092,7 +1106,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="454"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="468"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1113,7 +1127,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="454"/>
+    <cellStyle name="Hyperlink" xfId="468"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2453,7 +2467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9DE811-B72B-451C-B73B-4D5CBE41E77C}">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G7" sqref="G7"/>
@@ -4101,6 +4115,20 @@
       </c>
       <c r="D118" s="9">
         <v>45782.6970138889</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" s="9">
+        <v>45783</v>
+      </c>
+      <c r="D119" s="9">
+        <v>45783.6893865741</v>
       </c>
     </row>
   </sheetData>

--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="167">
   <si>
     <t>Name</t>
   </si>
@@ -624,7 +624,7 @@
       <bottom/>
     </border>
   </borders>
-  <cellStyleXfs count="469">
+  <cellStyleXfs count="483">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -648,6 +648,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1106,7 +1120,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="468"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="482"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1127,7 +1141,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="468"/>
+    <cellStyle name="Hyperlink" xfId="482"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2467,7 +2481,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9DE811-B72B-451C-B73B-4D5CBE41E77C}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G7" sqref="G7"/>
@@ -4129,6 +4143,20 @@
       </c>
       <c r="D119" s="9">
         <v>45783.6893865741</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15">
+      <c r="A120" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" s="9">
+        <v>45783</v>
+      </c>
+      <c r="D120" s="9">
+        <v>45783.7988888889</v>
       </c>
     </row>
   </sheetData>

--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="65416" yWindow="65416" windowWidth="21840" windowHeight="13740" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="21840" windowHeight="13740" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames/>
   <calcPr calcId="191029"/>
   <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="169">
   <si>
     <t>Name</t>
   </si>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t xml:space="preserve"> logged in</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>C:\Users\Computer\Desktop\EVENTDRIVEN\sint\EVENTDRIVE_ALEGADO\Pictures</t>
   </si>
 </sst>
 </file>
@@ -624,7 +630,7 @@
       <bottom/>
     </border>
   </borders>
-  <cellStyleXfs count="483">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -648,471 +654,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1120,7 +664,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="482"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1129,10 +673,9 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -1141,7 +684,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="482"/>
+    <cellStyle name="Hyperlink" xfId="20"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1520,30 +1063,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86908638-053D-4436-911E-FEB42C1EF90C}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="F1">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultColWidthPt="48" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28125" widthPt="75" style="0" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.00390625" widthPt="42" style="0" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" widthPt="119.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.00390625" widthPt="73.5" style="0" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.57421875" widthPt="39.75" style="0" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.421875" widthPt="107.25" style="0" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28125" widthPt="132.75" style="0" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28125" widthPt="59.25" style="0" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" widthPt="56.25" style="0" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.421875" widthPt="23.25" style="0" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.00390625" widthPt="57.75" style="0" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" widthPt="69" style="0" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28125" widthPt="54" style="0" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" widthPt="63.75" style="0" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28125" widthPt="106.5" style="0" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.57421875" widthPt="71.25" style="0" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" widthPt="119.25" style="0" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28125" widthPt="43.5" style="0" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.00390625" widthPt="115.5" style="0" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" widthPt="37.5" style="0" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.421875" widthPt="33.75" style="0" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="75.28125" widthPt="395.25" style="0" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1583,8 +1127,11 @@
       <c r="M1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15">
+      <c r="N1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1623,6 +1170,9 @@
       </c>
       <c r="M2">
         <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15">
@@ -1867,7 +1417,7 @@
       <c r="L8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8">
         <v>1</v>
       </c>
     </row>
@@ -1908,7 +1458,7 @@
       <c r="L9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9">
         <v>1</v>
       </c>
     </row>
@@ -1949,7 +1499,7 @@
       <c r="L10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10">
         <v>1</v>
       </c>
     </row>
@@ -1990,7 +1540,7 @@
       <c r="L11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11">
         <v>0</v>
       </c>
     </row>
@@ -2031,7 +1581,7 @@
       <c r="L12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12">
         <v>0</v>
       </c>
     </row>
@@ -2072,7 +1622,7 @@
       <c r="L13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13">
         <v>0</v>
       </c>
     </row>
@@ -2113,7 +1663,7 @@
       <c r="L14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14">
         <v>0</v>
       </c>
     </row>
@@ -2154,7 +1704,7 @@
       <c r="L15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15">
         <v>0</v>
       </c>
     </row>
@@ -2195,7 +1745,7 @@
       <c r="L16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16">
         <v>1</v>
       </c>
     </row>
@@ -2236,7 +1786,7 @@
       <c r="L17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17">
         <v>1</v>
       </c>
     </row>
@@ -2277,7 +1827,7 @@
       <c r="L18" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18">
         <v>0</v>
       </c>
     </row>
@@ -2318,7 +1868,7 @@
       <c r="L19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19">
         <v>1</v>
       </c>
     </row>
@@ -2359,7 +1909,7 @@
       <c r="L20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20">
         <v>0</v>
       </c>
     </row>
@@ -2400,7 +1950,7 @@
       <c r="L21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21">
         <v>1</v>
       </c>
     </row>
@@ -2441,7 +1991,7 @@
       <c r="L22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22">
         <v>1</v>
       </c>
     </row>
@@ -2481,7 +2031,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9DE811-B72B-451C-B73B-4D5CBE41E77C}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G7" sqref="G7"/>
@@ -3733,10 +3283,10 @@
       <c r="B89" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="4">
         <v>45776</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="4">
         <v>45776.6848842593</v>
       </c>
     </row>
@@ -3747,10 +3297,10 @@
       <c r="B90" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="4">
         <v>45779</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="4">
         <v>45779.8191203704</v>
       </c>
     </row>
@@ -3761,10 +3311,10 @@
       <c r="B91" t="s">
         <v>55</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="4">
         <v>45779</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="4">
         <v>45779.8210069444</v>
       </c>
     </row>
@@ -3775,10 +3325,10 @@
       <c r="B92" t="s">
         <v>48</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="4">
         <v>45779</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="4">
         <v>45779.8442824074</v>
       </c>
     </row>
@@ -3789,10 +3339,10 @@
       <c r="B93" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="4">
         <v>45782</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="4">
         <v>45782.677662037</v>
       </c>
     </row>
@@ -3803,10 +3353,10 @@
       <c r="B94" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="4">
         <v>45782</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="4">
         <v>45782.678287037</v>
       </c>
     </row>
@@ -3817,10 +3367,10 @@
       <c r="B95" t="s">
         <v>48</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="4">
         <v>45782</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="4">
         <v>45782.6805671296</v>
       </c>
     </row>
@@ -3828,10 +3378,10 @@
       <c r="B96" t="s">
         <v>166</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="4">
         <v>45782</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="4">
         <v>45782.6814814815</v>
       </c>
     </row>
@@ -3839,10 +3389,10 @@
       <c r="B97" t="s">
         <v>166</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="4">
         <v>45782</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="4">
         <v>45782.6815740741</v>
       </c>
     </row>
@@ -3850,10 +3400,10 @@
       <c r="B98" t="s">
         <v>166</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="4">
         <v>45782</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="4">
         <v>45782.6871875</v>
       </c>
     </row>
@@ -3864,10 +3414,10 @@
       <c r="B99" t="s">
         <v>48</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="4">
         <v>45782</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="4">
         <v>45782.6889814815</v>
       </c>
     </row>
@@ -3878,10 +3428,10 @@
       <c r="B100" t="s">
         <v>48</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="4">
         <v>45782</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="4">
         <v>45782.6890162037</v>
       </c>
     </row>
@@ -3892,10 +3442,10 @@
       <c r="B101" t="s">
         <v>48</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="4">
         <v>45782</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="4">
         <v>45782.6890277778</v>
       </c>
     </row>
@@ -3906,10 +3456,10 @@
       <c r="B102" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="4">
         <v>45782</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="4">
         <v>45782.6890277778</v>
       </c>
     </row>
@@ -3920,10 +3470,10 @@
       <c r="B103" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="4">
         <v>45782</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="4">
         <v>45782.6890393518</v>
       </c>
     </row>
@@ -3934,10 +3484,10 @@
       <c r="B104" t="s">
         <v>48</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="4">
         <v>45782</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="4">
         <v>45782.6890393518</v>
       </c>
     </row>
@@ -3948,10 +3498,10 @@
       <c r="B105" t="s">
         <v>48</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="4">
         <v>45782</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="4">
         <v>45782.6890393518</v>
       </c>
     </row>
@@ -3962,10 +3512,10 @@
       <c r="B106" t="s">
         <v>48</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="4">
         <v>45782</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="4">
         <v>45782.6890393518</v>
       </c>
     </row>
@@ -3976,10 +3526,10 @@
       <c r="B107" t="s">
         <v>48</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="4">
         <v>45782</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="4">
         <v>45782.6890509259</v>
       </c>
     </row>
@@ -3990,10 +3540,10 @@
       <c r="B108" t="s">
         <v>48</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="4">
         <v>45782</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="4">
         <v>45782.6890509259</v>
       </c>
     </row>
@@ -4004,10 +3554,10 @@
       <c r="B109" t="s">
         <v>48</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="4">
         <v>45782</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="4">
         <v>45782.6890509259</v>
       </c>
     </row>
@@ -4015,10 +3565,10 @@
       <c r="B110" t="s">
         <v>166</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="4">
         <v>45782</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="4">
         <v>45782.689537037</v>
       </c>
     </row>
@@ -4026,10 +3576,10 @@
       <c r="B111" t="s">
         <v>166</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="4">
         <v>45782</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="4">
         <v>45782.6899189815</v>
       </c>
     </row>
@@ -4040,10 +3590,10 @@
       <c r="B112" t="s">
         <v>48</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="4">
         <v>45782</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="4">
         <v>45782.6925810185</v>
       </c>
     </row>
@@ -4054,10 +3604,10 @@
       <c r="B113" t="s">
         <v>48</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="4">
         <v>45782</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="4">
         <v>45782.6937731481</v>
       </c>
     </row>
@@ -4068,10 +3618,10 @@
       <c r="B114" t="s">
         <v>48</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="4">
         <v>45782</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="4">
         <v>45782.6947106481</v>
       </c>
     </row>
@@ -4082,10 +3632,10 @@
       <c r="B115" t="s">
         <v>48</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="4">
         <v>45782</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="4">
         <v>45782.6952893518</v>
       </c>
     </row>
@@ -4096,10 +3646,10 @@
       <c r="B116" t="s">
         <v>48</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="4">
         <v>45782</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="4">
         <v>45782.6959027778</v>
       </c>
     </row>
@@ -4110,10 +3660,10 @@
       <c r="B117" t="s">
         <v>48</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="4">
         <v>45782</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="4">
         <v>45782.69625</v>
       </c>
     </row>
@@ -4124,10 +3674,10 @@
       <c r="B118" t="s">
         <v>48</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="4">
         <v>45782</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="4">
         <v>45782.6970138889</v>
       </c>
     </row>
@@ -4138,10 +3688,10 @@
       <c r="B119" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="4">
         <v>45783</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="4">
         <v>45783.6893865741</v>
       </c>
     </row>
@@ -4152,11 +3702,25 @@
       <c r="B120" t="s">
         <v>55</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="4">
         <v>45783</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D120" s="4">
         <v>45783.7988888889</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" s="10">
+        <v>45783</v>
+      </c>
+      <c r="D121" s="10">
+        <v>45783.8140277778</v>
       </c>
     </row>
   </sheetData>
@@ -4167,20 +3731,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultColWidthPt="48.75" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" ht="15">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" ht="15">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4190,7 +3754,7 @@
       </c>
     </row>
     <row r="5" ht="15">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4200,7 +3764,7 @@
       </c>
     </row>
     <row r="8" ht="15">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4210,13 +3774,13 @@
       </c>
     </row>
     <row r="11" ht="15">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://www.e-iceblue.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://www.e-iceblue.com/"/>
     <hyperlink ref="B8" r:id="rId2" display="mailto:support@e-iceblue.com"/>
     <hyperlink ref="B11" r:id="rId3" display="https://www.e-iceblue.com/Buy/Spire.XLS.html"/>
   </hyperlinks>

--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="169">
   <si>
     <t>Name</t>
   </si>
@@ -630,7 +630,7 @@
       <bottom/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -654,6 +654,34 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
@@ -664,7 +692,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -684,7 +712,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="20"/>
+    <cellStyle name="Hyperlink" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2031,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9DE811-B72B-451C-B73B-4D5CBE41E77C}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G7" sqref="G7"/>
@@ -3721,6 +3749,34 @@
       </c>
       <c r="D121" s="10">
         <v>45783.8140277778</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15">
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="10">
+        <v>45783</v>
+      </c>
+      <c r="D122" s="10">
+        <v>45783.8516203704</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="10">
+        <v>45783</v>
+      </c>
+      <c r="D123" s="10">
+        <v>45783.8556134259</v>
       </c>
     </row>
   </sheetData>

--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="169">
   <si>
     <t>Name</t>
   </si>
@@ -630,7 +630,7 @@
       <bottom/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -654,6 +654,76 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -692,7 +762,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="118"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -712,7 +782,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="48"/>
+    <cellStyle name="Hyperlink" xfId="118"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2059,7 +2129,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9DE811-B72B-451C-B73B-4D5CBE41E77C}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G7" sqref="G7"/>
@@ -3777,6 +3847,76 @@
       </c>
       <c r="D123" s="10">
         <v>45783.8556134259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15">
+      <c r="A124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" s="10">
+        <v>45787</v>
+      </c>
+      <c r="D124" s="10">
+        <v>45787.746875</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" s="10">
+        <v>45787</v>
+      </c>
+      <c r="D125" s="10">
+        <v>45787.748912037</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15">
+      <c r="A126" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" s="10">
+        <v>45788</v>
+      </c>
+      <c r="D126" s="10">
+        <v>45788.8391782407</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15">
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="10">
+        <v>45788</v>
+      </c>
+      <c r="D127" s="10">
+        <v>45788.8397222222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="10">
+        <v>45788</v>
+      </c>
+      <c r="D128" s="10">
+        <v>45788.8403356481</v>
       </c>
     </row>
   </sheetData>

--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="169">
   <si>
     <t>Name</t>
   </si>
@@ -630,7 +630,7 @@
       <bottom/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -654,6 +654,62 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -762,7 +818,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="118"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="174"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -782,7 +838,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="118"/>
+    <cellStyle name="Hyperlink" xfId="174"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2129,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9DE811-B72B-451C-B73B-4D5CBE41E77C}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G7" sqref="G7"/>
@@ -3917,6 +3973,62 @@
       </c>
       <c r="D128" s="10">
         <v>45788.8403356481</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="10">
+        <v>45788</v>
+      </c>
+      <c r="D129" s="10">
+        <v>45788.8706944444</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" s="10">
+        <v>45788</v>
+      </c>
+      <c r="D130" s="10">
+        <v>45788.8713888889</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>48</v>
+      </c>
+      <c r="C131" s="10">
+        <v>45788</v>
+      </c>
+      <c r="D131" s="10">
+        <v>45788.871724537</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15">
+      <c r="A132" t="s">
+        <v>39</v>
+      </c>
+      <c r="B132" t="s">
+        <v>55</v>
+      </c>
+      <c r="C132" s="10">
+        <v>45788</v>
+      </c>
+      <c r="D132" s="10">
+        <v>45788.9240162037</v>
       </c>
     </row>
   </sheetData>

--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="170">
   <si>
     <t>Age</t>
   </si>
@@ -513,6 +513,33 @@
   </si>
   <si>
     <t>Searched in the active list.</t>
+  </si>
+  <si>
+    <t>awe</t>
+  </si>
+  <si>
+    <t>Seyntt</t>
+  </si>
+  <si>
+    <t>Seyntt@gmail.com</t>
+  </si>
+  <si>
+    <t>seyntt1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basketball </t>
+  </si>
+  <si>
+    <t>eheyy</t>
+  </si>
+  <si>
+    <t>C:\Users\Computer\Desktop\EVENTDRIVEN\sint\EVENTDRIVE_ALEGADO\Pictures\Zoro.jpg</t>
+  </si>
+  <si>
+    <t>Added a new Student to the list.</t>
+  </si>
+  <si>
+    <t>seyntt1 logged in</t>
   </si>
 </sst>
 </file>
@@ -574,7 +601,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="427">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -598,6 +625,356 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -662,7 +1039,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="76"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="426"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -675,7 +1052,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="76"/>
+    <cellStyle name="Hyperlink" xfId="426"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1054,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2762EAC-D255-4E79-B041-AB14F8C40E7E}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G28" sqref="G28"/>
@@ -1986,6 +2363,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="5:7" ht="15">
+      <c r="E23" s="5">
+        <v>45789</v>
+      </c>
+      <c r="G23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="5">
+        <v>37134</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="mailto:jsaintalegado1@gmail.com"/>
@@ -1999,7 +2428,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6D9DD-F468-446C-9A12-12FC2CA86E12}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="E9" sqref="E9"/>
@@ -2091,6 +2520,328 @@
         <v>45788.9815509259</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45789.7164467593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45789.7211458333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45789.7225231482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45789.7238194444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D11" s="5">
+        <v>45789.7248726852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45789.7253587963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D13" s="5">
+        <v>45789.7286574074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45789.7293055556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D15" s="5">
+        <v>45789.7332407407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D16" s="5">
+        <v>45789.7876851852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45789.7905555556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D18" s="5">
+        <v>45789.7912384259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D19" s="5">
+        <v>45789.7920717593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45789.7926157407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D21" s="5">
+        <v>45789.7948842593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D22" s="5">
+        <v>45789.7971064815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D23" s="5">
+        <v>45789.8011458333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D24" s="5">
+        <v>45789.8067013889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D25" s="5">
+        <v>45789.8072337963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D26" s="5">
+        <v>45789.8141550926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D27" s="5">
+        <v>45789.8175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D28" s="5">
+        <v>45789.8198611111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D29" s="5">
+        <v>45789.8202314815</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="170">
   <si>
     <t>Age</t>
   </si>
@@ -601,7 +601,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="427">
+  <cellStyleXfs count="511">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -625,6 +625,90 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1039,7 +1123,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="426"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="510"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1052,7 +1136,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="426"/>
+    <cellStyle name="Hyperlink" xfId="510"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2428,7 +2512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6D9DD-F468-446C-9A12-12FC2CA86E12}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="E9" sqref="E9"/>
@@ -2842,6 +2926,90 @@
         <v>45789.8202314815</v>
       </c>
     </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D30" s="5">
+        <v>45789.8446643518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D31" s="5">
+        <v>45789.8475578704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D32" s="5">
+        <v>45789.8509259259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D33" s="5">
+        <v>45789.8518865741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D34" s="5">
+        <v>45789.8534027778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D35" s="5">
+        <v>45789.8743865741</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="173">
   <si>
     <t>Age</t>
   </si>
@@ -540,6 +540,15 @@
   </si>
   <si>
     <t>seyntt1 logged in</t>
+  </si>
+  <si>
+    <t>Cebu</t>
+  </si>
+  <si>
+    <t>seyntt@email.com</t>
+  </si>
+  <si>
+    <t>ehh</t>
   </si>
 </sst>
 </file>
@@ -601,7 +610,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="511">
+  <cellStyleXfs count="721">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -625,6 +634,216 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1123,7 +1342,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="510"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="720"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1136,7 +1355,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="510"/>
+    <cellStyle name="Hyperlink" xfId="720"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1515,7 +1734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2762EAC-D255-4E79-B041-AB14F8C40E7E}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G28" sqref="G28"/>
@@ -1670,40 +1889,40 @@
     </row>
     <row r="4" spans="1:13" ht="15">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1">
-        <v>39919</v>
+        <v>36557</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1711,7 +1930,7 @@
     </row>
     <row r="5" spans="1:13" ht="15">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
@@ -1719,155 +1938,155 @@
       <c r="C5" t="s">
         <v>101</v>
       </c>
-      <c r="D5" t="s">
-        <v>102</v>
+      <c r="D5" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="E5" s="1">
-        <v>36600</v>
+        <v>38475</v>
       </c>
       <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15">
+      <c r="A6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="4">
+        <v>34714</v>
+      </c>
+      <c r="F6" s="2">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15">
+      <c r="A7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="4">
+        <v>35846</v>
+      </c>
+      <c r="F7" s="2">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5">
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="1">
-        <v>36557</v>
-      </c>
-      <c r="F6">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15">
-      <c r="A7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="1">
-        <v>38475</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E8" s="4">
-        <v>34714</v>
+        <v>33673</v>
       </c>
       <c r="F8" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1875,122 +2094,122 @@
     </row>
     <row r="9" spans="1:13" ht="15">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E9" s="4">
-        <v>35846</v>
+        <v>35160</v>
       </c>
       <c r="F9" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15">
       <c r="A10" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E10" s="4">
-        <v>33673</v>
+        <v>34479</v>
       </c>
       <c r="F10" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15">
       <c r="A11" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E11" s="4">
-        <v>35160</v>
+        <v>33054</v>
       </c>
       <c r="F11" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="H11" s="2">
+        <v>123456</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1998,40 +2217,40 @@
     </row>
     <row r="12" spans="1:13" ht="15">
       <c r="A12" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E12" s="4">
-        <v>34479</v>
+        <v>34165</v>
       </c>
       <c r="F12" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2039,40 +2258,40 @@
     </row>
     <row r="13" spans="1:13" ht="15">
       <c r="A13" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E13" s="4">
-        <v>33054</v>
+        <v>33472</v>
       </c>
       <c r="F13" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="2">
-        <v>123456</v>
+        <v>63</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2080,163 +2299,163 @@
     </row>
     <row r="14" spans="1:13" ht="15">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E14" s="4">
-        <v>34165</v>
+        <v>34952</v>
       </c>
       <c r="F14" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15">
       <c r="A15" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E15" s="4">
-        <v>33472</v>
+        <v>34612</v>
       </c>
       <c r="F15" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15">
       <c r="A16" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E16" s="4">
-        <v>34952</v>
+        <v>33920</v>
       </c>
       <c r="F16" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15">
       <c r="A17" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E17" s="4">
-        <v>34612</v>
+        <v>35419</v>
       </c>
       <c r="F17" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2244,40 +2463,40 @@
     </row>
     <row r="18" spans="1:13" ht="15">
       <c r="A18" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E18" s="4">
-        <v>33920</v>
+        <v>32903</v>
       </c>
       <c r="F18" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2285,40 +2504,40 @@
     </row>
     <row r="19" spans="1:13" ht="15">
       <c r="A19" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E19" s="4">
-        <v>35419</v>
+        <v>34758</v>
       </c>
       <c r="F19" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2326,183 +2545,93 @@
     </row>
     <row r="20" spans="1:13" ht="15">
       <c r="A20" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E20" s="4">
-        <v>32903</v>
+        <v>34043</v>
       </c>
       <c r="F20" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="5">
+        <v>36557</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="2" t="s">
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
         <v>13</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15">
-      <c r="A21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="4">
-        <v>34758</v>
-      </c>
-      <c r="F21" s="2">
-        <v>28</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15">
-      <c r="A22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="4">
-        <v>34043</v>
-      </c>
-      <c r="F22" s="2">
-        <v>30</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" ht="15">
-      <c r="E23" s="5">
-        <v>45789</v>
-      </c>
-      <c r="G23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15">
-      <c r="A24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="5">
-        <v>37134</v>
-      </c>
-      <c r="F24">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" t="s">
-        <v>165</v>
-      </c>
-      <c r="J24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="N21" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="mailto:jsaintalegado1@gmail.com"/>
-    <hyperlink ref="D7" r:id="rId2" display="mailto:yuichi1@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId2" display="mailto:yuichi1@gmail.com"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2512,7 +2641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6D9DD-F468-446C-9A12-12FC2CA86E12}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="E9" sqref="E9"/>
@@ -3010,6 +3139,112 @@
         <v>45789.8743865741</v>
       </c>
     </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D36" s="5">
+        <v>45789.8875810185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D37" s="5">
+        <v>45789.8931597222</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15">
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D38" s="5">
+        <v>45789.8932638889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D39" s="5">
+        <v>45789.8964699074</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D40" s="5">
+        <v>45789.8982523148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D41" s="5">
+        <v>45789.9029166667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D42" s="5">
+        <v>45789.9126041667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D43" s="5">
+        <v>45789.9138425926</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
+++ b/EVENTDRIVE_ALEGADO/BOOKDB.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="180">
   <si>
     <t>Age</t>
   </si>
@@ -549,6 +549,27 @@
   </si>
   <si>
     <t>ehh</t>
+  </si>
+  <si>
+    <t>Yui</t>
+  </si>
+  <si>
+    <t>yui@email.com</t>
+  </si>
+  <si>
+    <t>yui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volleyball </t>
+  </si>
+  <si>
+    <t>yyhee</t>
+  </si>
+  <si>
+    <t>C:\Users\Computer\Desktop\EVENTDRIVEN\sint\EVENTDRIVE_ALEGADO\Pictures\Nami.jpg</t>
+  </si>
+  <si>
+    <t>yui logged in</t>
   </si>
 </sst>
 </file>
@@ -610,7 +631,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="721">
+  <cellStyleXfs count="791">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -634,6 +655,76 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1342,7 +1433,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="720"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="790"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1355,7 +1446,7 @@
     <cellStyle name="Currency [0]" xfId="17"/>
     <cellStyle name="Comma" xfId="18"/>
     <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="720"/>
+    <cellStyle name="Hyperlink" xfId="790"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1734,7 +1825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2762EAC-D255-4E79-B041-AB14F8C40E7E}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G28" sqref="G28"/>
@@ -2628,6 +2719,50 @@
         <v>167</v>
       </c>
     </row>
+    <row r="22" spans="1:14" ht="15">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="5">
+        <v>38552</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" t="s">
+        <v>175</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="mailto:jsaintalegado1@gmail.com"/>
@@ -2641,7 +2776,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B6D9DD-F468-446C-9A12-12FC2CA86E12}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="E9" sqref="E9"/>
@@ -3234,7 +3369,7 @@
         <v>45789.9126041667</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="2:4" ht="15">
       <c r="B43" t="s">
         <v>168</v>
       </c>
@@ -3243,6 +3378,62 @@
       </c>
       <c r="D43" s="5">
         <v>45789.9138425926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D44" s="5">
+        <v>45789.9256828704</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D45" s="5">
+        <v>45789.9267592593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D46" s="5">
+        <v>45789.9270138889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="5">
+        <v>45789</v>
+      </c>
+      <c r="D47" s="5">
+        <v>45789.9270717593</v>
       </c>
     </row>
   </sheetData>
